--- a/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
+++ b/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="19140" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="19140" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Country Selector" sheetId="1" r:id="rId2"/>
     <sheet name="Cement Perc Reductions" sheetId="2" r:id="rId3"/>
-    <sheet name="PERAC-PPRiEYPEfC" sheetId="4" r:id="rId4"/>
+    <sheet name="PERAC-PPRiPEfC" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Regions">'Country Selector'!$D$2:$D$18</definedName>
@@ -140,7 +140,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -278,7 +278,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
@@ -664,14 +664,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,12 +783,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1090,9 +1090,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>

--- a/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
+++ b/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Regions">'Country Selector'!$D$2:$D$18</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="50" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -660,9 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -813,11 +811,11 @@
         <v>0.83</v>
       </c>
       <c r="C2" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="10">
         <f>(B2-C2)/B2</f>
-        <v>0.15662650602409639</v>
+        <v>0.27710843373493976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -828,11 +826,11 @@
         <v>0.74</v>
       </c>
       <c r="C3" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D19" si="0">(B3-C3)/B3</f>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -843,11 +841,11 @@
         <v>0.84</v>
       </c>
       <c r="C4" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -858,11 +856,11 @@
         <v>0.74</v>
       </c>
       <c r="C5" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -873,11 +871,11 @@
         <v>0.74</v>
       </c>
       <c r="C6" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -888,11 +886,11 @@
         <v>0.84</v>
       </c>
       <c r="C7" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -903,11 +901,11 @@
         <v>0.84</v>
       </c>
       <c r="C8" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -918,11 +916,11 @@
         <v>0.8</v>
       </c>
       <c r="C9" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0.12500000000000011</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -933,11 +931,11 @@
         <v>0.84</v>
       </c>
       <c r="C10" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -948,11 +946,11 @@
         <v>0.84</v>
       </c>
       <c r="C11" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -963,11 +961,11 @@
         <v>0.79</v>
       </c>
       <c r="C12" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>0.11392405063291149</v>
+        <v>0.24050632911392411</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -978,11 +976,11 @@
         <v>0.74</v>
       </c>
       <c r="C13" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -993,11 +991,11 @@
         <v>0.79</v>
       </c>
       <c r="C14" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>0.11392405063291149</v>
+        <v>0.24050632911392411</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1008,11 +1006,11 @@
         <v>0.76</v>
       </c>
       <c r="C15" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>7.8947368421052697E-2</v>
+        <v>0.21052631578947373</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1024,11 +1022,11 @@
         <v>0.8</v>
       </c>
       <c r="C16" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
-        <v>0.12500000000000011</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1039,11 +1037,11 @@
         <v>0.84</v>
       </c>
       <c r="C17" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1054,11 +1052,11 @@
         <v>0.84</v>
       </c>
       <c r="C18" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1069,11 +1067,11 @@
         <v>0.78</v>
       </c>
       <c r="C19" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
-        <v>0.10256410256410266</v>
+        <v>0.23076923076923084</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1105,7 @@
       </c>
       <c r="B2" s="12">
         <f>VLOOKUP('Country Selector'!B1,'Cement Perc Reductions'!A1:D19,4,FALSE)</f>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
